--- a/Sigmaa005/Sigmaa005ScoreBoard.xlsx
+++ b/Sigmaa005/Sigmaa005ScoreBoard.xlsx
@@ -26,24 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>timestamp</t>
   </si>
   <si>
     <t>Combined_signal</t>
-  </si>
-  <si>
-    <t>Carry</t>
-  </si>
-  <si>
-    <t>EWMA_ST</t>
-  </si>
-  <si>
-    <t>EWMA_MT</t>
-  </si>
-  <si>
-    <t>EWMA_LT</t>
   </si>
   <si>
     <t>US Equity</t>
@@ -141,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -353,97 +341,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -462,21 +364,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -513,6 +400,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4705350" y="600075"/>
+          <a:ext cx="2828925" cy="3857625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -778,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,331 +736,174 @@
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="B2" s="9">
+        <v>43045</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1.9812507269624784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="B3" s="7">
+        <v>43045</v>
+      </c>
+      <c r="C3" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="B4" s="7">
+        <v>43045</v>
+      </c>
+      <c r="C4" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="B5" s="7">
+        <v>43045</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1.9885251592329714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9">
-        <v>43045</v>
-      </c>
-      <c r="C2" s="22">
-        <v>19.812507269624785</v>
-      </c>
-      <c r="D2" s="10">
-        <v>-0.59478654273842591</v>
-      </c>
-      <c r="E2" s="11">
-        <v>20</v>
-      </c>
-      <c r="F2" s="11">
-        <v>20</v>
-      </c>
-      <c r="G2" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="B6" s="7">
+        <v>43045</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1.441418290488484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7">
-        <v>43045</v>
-      </c>
-      <c r="C3" s="23">
-        <v>20</v>
-      </c>
-      <c r="D3" s="10">
-        <v>20</v>
-      </c>
-      <c r="E3" s="11">
-        <v>10.77857879978961</v>
-      </c>
-      <c r="F3" s="11">
-        <v>14.37906162005946</v>
-      </c>
-      <c r="G3" s="12">
-        <v>17.794806220568844</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="B7" s="7">
+        <v>43045</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.16715734525610879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7">
-        <v>43045</v>
-      </c>
-      <c r="C4" s="23">
-        <v>20</v>
-      </c>
-      <c r="D4" s="10">
-        <v>10.248519494294522</v>
-      </c>
-      <c r="E4" s="11">
-        <v>20</v>
-      </c>
-      <c r="F4" s="11">
-        <v>20</v>
-      </c>
-      <c r="G4" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="B8" s="7">
+        <v>43045</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0.1013967073476723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="7">
-        <v>43045</v>
-      </c>
-      <c r="C5" s="23">
-        <v>19.885251592329713</v>
-      </c>
-      <c r="D5" s="10">
-        <v>5.9764363365259525</v>
-      </c>
-      <c r="E5" s="11">
-        <v>20</v>
-      </c>
-      <c r="F5" s="11">
-        <v>20</v>
-      </c>
-      <c r="G5" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="B9" s="7">
+        <v>43045</v>
+      </c>
+      <c r="C9" s="14">
+        <v>-0.37169298467692047</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7">
-        <v>43045</v>
-      </c>
-      <c r="C6" s="23">
-        <v>14.414182904884841</v>
-      </c>
-      <c r="D6" s="10">
-        <v>-1.1282940867453448</v>
-      </c>
-      <c r="E6" s="11">
-        <v>10.881037850921571</v>
-      </c>
-      <c r="F6" s="11">
-        <v>17.748157161075653</v>
-      </c>
-      <c r="G6" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="B10" s="7">
+        <v>43045</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0.31128329424329648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7">
-        <v>43045</v>
-      </c>
-      <c r="C7" s="23">
-        <v>1.6715734525610879</v>
-      </c>
-      <c r="D7" s="10">
-        <v>7.6613107951095527</v>
-      </c>
-      <c r="E7" s="11">
-        <v>-15.079128210831428</v>
-      </c>
-      <c r="F7" s="11">
-        <v>-8.5162505302386169</v>
-      </c>
-      <c r="G7" s="12">
-        <v>-7.2939232920314518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="B11" s="7">
+        <v>43045</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0.50736781952658971</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="7">
-        <v>43045</v>
-      </c>
-      <c r="C8" s="23">
-        <v>1.013967073476723</v>
-      </c>
-      <c r="D8" s="10">
-        <v>10.85925361330364</v>
-      </c>
-      <c r="E8" s="11">
-        <v>-11.994658700621292</v>
-      </c>
-      <c r="F8" s="11">
-        <v>-13.040744833901584</v>
-      </c>
-      <c r="G8" s="12">
-        <v>-5.3986306699938211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="B12" s="7">
+        <v>43045</v>
+      </c>
+      <c r="C12" s="14">
+        <v>-0.41690358001682315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7">
-        <v>43045</v>
-      </c>
-      <c r="C9" s="23">
-        <v>-3.7169298467692045</v>
-      </c>
-      <c r="D9" s="10">
-        <v>-2.5567866666698364</v>
-      </c>
-      <c r="E9" s="11">
-        <v>-4.043819287916504</v>
-      </c>
-      <c r="F9" s="11">
-        <v>-2.0638702156581954</v>
-      </c>
-      <c r="G9" s="12">
-        <v>-1.0168534951810047</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="7">
-        <v>43045</v>
-      </c>
-      <c r="C10" s="23">
-        <v>3.1128329424329646</v>
-      </c>
-      <c r="D10" s="10">
-        <v>5.1523562304445427</v>
-      </c>
-      <c r="E10" s="11">
-        <v>-0.6875915105123056</v>
-      </c>
-      <c r="F10" s="11">
-        <v>-3.412604431058389</v>
-      </c>
-      <c r="G10" s="12">
-        <v>-1.4756577517744824</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="B13" s="8">
+        <v>43045</v>
+      </c>
+      <c r="C13" s="15">
+        <v>-1.4164184906072563</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="7">
-        <v>43045</v>
-      </c>
-      <c r="C11" s="23">
-        <v>5.0736781952658969</v>
-      </c>
-      <c r="D11" s="10">
-        <v>-3.6871167770776907</v>
-      </c>
-      <c r="E11" s="11">
-        <v>16.086066515366621</v>
-      </c>
-      <c r="F11" s="11">
-        <v>13.238172969291453</v>
-      </c>
-      <c r="G11" s="12">
-        <v>7.6221563033419635</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B12" s="7">
-        <v>43045</v>
-      </c>
-      <c r="C12" s="23">
-        <v>-4.1690358001682313</v>
-      </c>
-      <c r="D12" s="10">
-        <v>-19.93233663191867</v>
-      </c>
-      <c r="E12" s="11">
-        <v>-9.8021648222336601</v>
-      </c>
-      <c r="F12" s="11">
-        <v>1.3133984255523981</v>
-      </c>
-      <c r="G12" s="12">
-        <v>7.2966373664493878</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="8">
-        <v>43045</v>
-      </c>
-      <c r="C13" s="24">
-        <v>-14.164184906072563</v>
-      </c>
-      <c r="D13" s="13">
-        <v>-12.343583129790378</v>
-      </c>
-      <c r="E13" s="14">
-        <v>-6.6760271185499471</v>
-      </c>
-      <c r="F13" s="14">
-        <v>-8.7099616272816043</v>
-      </c>
-      <c r="G13" s="15">
-        <v>-6.0425861086433175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>20</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1121,23 +911,23 @@
         <v>0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <v>-20</v>
+        <v>-2</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1155,6 +945,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Sigmaa005/Sigmaa005ScoreBoard.xlsx
+++ b/Sigmaa005/Sigmaa005ScoreBoard.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27945" windowHeight="11670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27945" windowHeight="11670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Output" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>timestamp</t>
   </si>
@@ -34,6 +35,81 @@
     <t>Combined_signal</t>
   </si>
   <si>
+    <t>Signal</t>
+  </si>
+  <si>
+    <t>Strong Buy</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>Strong Sell</t>
+  </si>
+  <si>
+    <t>B or S</t>
+  </si>
+  <si>
+    <t>Carry</t>
+  </si>
+  <si>
+    <t>EWMA_ST</t>
+  </si>
+  <si>
+    <t>EWMA_MT</t>
+  </si>
+  <si>
+    <t>EWMA_LT</t>
+  </si>
+  <si>
+    <t>namelist</t>
+  </si>
+  <si>
+    <t>SPX</t>
+  </si>
+  <si>
+    <t>UKX</t>
+  </si>
+  <si>
+    <t>CAC</t>
+  </si>
+  <si>
+    <t>NKY</t>
+  </si>
+  <si>
+    <t>HIA</t>
+  </si>
+  <si>
+    <t>USZC</t>
+  </si>
+  <si>
+    <t>UKZC</t>
+  </si>
+  <si>
+    <t>JPZC</t>
+  </si>
+  <si>
+    <t>GERZC</t>
+  </si>
+  <si>
+    <t>WTI</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Asset Class</t>
+  </si>
+  <si>
     <t>US Equity</t>
   </si>
   <si>
@@ -46,58 +122,40 @@
     <t>JP Equity</t>
   </si>
   <si>
-    <t>PB Equity</t>
-  </si>
-  <si>
-    <t>US Bond</t>
-  </si>
-  <si>
-    <t>UK Bond</t>
-  </si>
-  <si>
-    <t>JP Bond</t>
-  </si>
-  <si>
-    <t>EU Bond</t>
-  </si>
-  <si>
-    <t>Oil</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Coffee</t>
-  </si>
-  <si>
-    <t>Asset Classes</t>
-  </si>
-  <si>
-    <t>Signal</t>
-  </si>
-  <si>
-    <t>Strong Buy</t>
-  </si>
-  <si>
-    <t>Buy</t>
-  </si>
-  <si>
-    <t>Neutral</t>
-  </si>
-  <si>
-    <t>Sell</t>
-  </si>
-  <si>
-    <t>Strong Sell</t>
-  </si>
-  <si>
-    <t>B or S</t>
+    <t>HK Equity</t>
+  </si>
+  <si>
+    <t>US Treasury</t>
+  </si>
+  <si>
+    <t>UK Gilts</t>
+  </si>
+  <si>
+    <t>JP GovBonds</t>
+  </si>
+  <si>
+    <t>EU Bunds</t>
+  </si>
+  <si>
+    <t>Crude Oil</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Short Term Signal Only</t>
+  </si>
+  <si>
+    <t>T-model signal (combined)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -129,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -341,11 +399,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -382,9 +494,48 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,177 +876,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>43077</v>
+      </c>
+      <c r="B2" s="9">
+        <v>18.649979791668912</v>
+      </c>
+      <c r="C2" s="13">
+        <v>-3.9663832799179333</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>43077</v>
+      </c>
+      <c r="B3" s="7">
+        <v>20</v>
+      </c>
+      <c r="C3" s="14">
+        <v>16.684601942494112</v>
+      </c>
+      <c r="D3">
+        <v>5.5733560361472074</v>
+      </c>
+      <c r="E3">
+        <v>9.4708503763952407</v>
+      </c>
+      <c r="F3">
+        <v>13.169748687254344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>43077</v>
+      </c>
+      <c r="B4" s="7">
+        <v>14.117317103061398</v>
+      </c>
+      <c r="C4" s="14">
+        <v>6.1042047741794132</v>
+      </c>
+      <c r="D4">
+        <v>6.6760150432087526</v>
+      </c>
+      <c r="E4">
+        <v>12.939308190275911</v>
+      </c>
+      <c r="F4">
+        <v>15.960748162828573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>43077</v>
+      </c>
+      <c r="B5" s="7">
+        <v>17.091866230778372</v>
+      </c>
+      <c r="C5" s="14">
+        <v>13.712218946388495</v>
+      </c>
+      <c r="D5">
+        <v>2.6779809153096328</v>
+      </c>
+      <c r="E5">
+        <v>12.547723341745744</v>
+      </c>
+      <c r="F5">
+        <v>17.252387856012099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>43077</v>
+      </c>
+      <c r="B6" s="7">
+        <v>10.880619988235393</v>
+      </c>
+      <c r="C6" s="14">
+        <v>-2.4731373805448338</v>
+      </c>
+      <c r="D6">
+        <v>7.8701676278994714</v>
+      </c>
+      <c r="E6">
+        <v>15.348880010914966</v>
+      </c>
+      <c r="F6">
+        <v>18.758352756514391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>43077</v>
+      </c>
+      <c r="B7" s="7">
+        <v>-0.13176184313442998</v>
+      </c>
+      <c r="C7" s="14">
+        <v>5.1543657242780014</v>
+      </c>
+      <c r="D7">
+        <v>-7.8324374906191387</v>
+      </c>
+      <c r="E7">
+        <v>-8.5947039734356263</v>
+      </c>
+      <c r="F7">
+        <v>-8.4728924935434016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>43077</v>
+      </c>
+      <c r="B8" s="7">
+        <v>5.1251173626475781</v>
+      </c>
+      <c r="C8" s="14">
+        <v>8.7804227669493464</v>
+      </c>
+      <c r="D8">
+        <v>0.87207028637587858</v>
+      </c>
+      <c r="E8">
+        <v>-5.0987887349677736</v>
+      </c>
+      <c r="F8">
+        <v>-4.0304817883549955</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>43077</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4.5390661723477042</v>
+      </c>
+      <c r="C9" s="14">
+        <v>2.6127257046025205</v>
+      </c>
+      <c r="D9">
+        <v>4.8694807174907329</v>
+      </c>
+      <c r="E9">
+        <v>4.4203207053859659</v>
+      </c>
+      <c r="F9">
+        <v>1.9812018537549818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>43077</v>
+      </c>
+      <c r="B10" s="7">
+        <v>16.466138844921783</v>
+      </c>
+      <c r="C10" s="14">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>6.5112978406758648</v>
+      </c>
+      <c r="E10">
+        <v>1.9483452552699327</v>
+      </c>
+      <c r="F10">
+        <v>0.4445316178186407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>43077</v>
+      </c>
+      <c r="B11" s="7">
+        <v>6.8468238631389529</v>
+      </c>
+      <c r="C11" s="14">
+        <v>-1.1975654982263575</v>
+      </c>
+      <c r="D11">
+        <v>8.4064333676840963</v>
+      </c>
+      <c r="E11">
+        <v>17.299827711252725</v>
+      </c>
+      <c r="F11">
+        <v>14.910973219370199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>43077</v>
+      </c>
+      <c r="B12" s="7">
+        <v>-2.0548719693690178</v>
+      </c>
+      <c r="C12" s="14">
+        <v>-5.5443761439808892</v>
+      </c>
+      <c r="D12">
+        <v>-9.5228451661322939</v>
+      </c>
+      <c r="E12">
+        <v>-1.6439366871901808</v>
+      </c>
+      <c r="F12">
+        <v>3.9100686777555222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
+        <v>43077</v>
+      </c>
+      <c r="B13" s="8">
+        <v>-13.667537968539802</v>
+      </c>
+      <c r="C13" s="15">
+        <v>-7.6659973982736611</v>
+      </c>
+      <c r="D13">
+        <v>-14.510145679461202</v>
+      </c>
+      <c r="E13">
+        <v>-7.9060284338763722</v>
+      </c>
+      <c r="F13">
+        <v>-7.3680539041034327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9">
-        <v>43045</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1.9812507269624784</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="7">
-        <v>43045</v>
-      </c>
-      <c r="C3" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>43045</v>
-      </c>
-      <c r="C4" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="7">
-        <v>43045</v>
-      </c>
-      <c r="C5" s="14">
-        <v>1.9885251592329714</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7">
-        <v>43045</v>
-      </c>
-      <c r="C6" s="14">
-        <v>1.441418290488484</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="7">
-        <v>43045</v>
-      </c>
-      <c r="C7" s="14">
-        <v>0.16715734525610879</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7">
-        <v>43045</v>
-      </c>
-      <c r="C8" s="14">
-        <v>0.1013967073476723</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="7">
-        <v>43045</v>
-      </c>
-      <c r="C9" s="14">
-        <v>-0.37169298467692047</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="7">
-        <v>43045</v>
-      </c>
-      <c r="C10" s="14">
-        <v>0.31128329424329648</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="7">
-        <v>43045</v>
-      </c>
-      <c r="C11" s="14">
-        <v>0.50736781952658971</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="7">
-        <v>43045</v>
-      </c>
-      <c r="C12" s="14">
-        <v>-0.41690358001682315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="8">
-        <v>43045</v>
-      </c>
-      <c r="C13" s="15">
-        <v>-1.4164184906072563</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -903,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -911,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -919,7 +1186,7 @@
         <v>-1</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -927,7 +1194,7 @@
         <v>-2</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -951,13 +1218,266 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="35">
+        <v>43077</v>
+      </c>
+      <c r="D2" s="36">
+        <v>18.649979791668912</v>
+      </c>
+      <c r="E2" s="37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="7">
+        <v>43077</v>
+      </c>
+      <c r="D3" s="21">
+        <v>20</v>
+      </c>
+      <c r="E3" s="23">
+        <v>5.5733560361472074</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="7">
+        <v>43077</v>
+      </c>
+      <c r="D4" s="21">
+        <v>14.117317103061398</v>
+      </c>
+      <c r="E4" s="23">
+        <v>6.6760150432087526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="7">
+        <v>43077</v>
+      </c>
+      <c r="D5" s="21">
+        <v>17.091866230778372</v>
+      </c>
+      <c r="E5" s="23">
+        <v>2.6779809153096328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="8">
+        <v>43077</v>
+      </c>
+      <c r="D6" s="24">
+        <v>10.880619988235393</v>
+      </c>
+      <c r="E6" s="25">
+        <v>7.8701676278994714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="35">
+        <v>43077</v>
+      </c>
+      <c r="D7" s="36">
+        <v>-0.13176184313442998</v>
+      </c>
+      <c r="E7" s="37">
+        <v>-7.8324374906191387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="7">
+        <v>43077</v>
+      </c>
+      <c r="D8" s="21">
+        <v>5.1251173626475781</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0.87207028637587858</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="7">
+        <v>43077</v>
+      </c>
+      <c r="D9" s="21">
+        <v>4.5390661723477042</v>
+      </c>
+      <c r="E9" s="23">
+        <v>4.8694807174907329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="8">
+        <v>43077</v>
+      </c>
+      <c r="D10" s="24">
+        <v>16.466138844921783</v>
+      </c>
+      <c r="E10" s="25">
+        <v>6.5112978406758648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="9">
+        <v>43077</v>
+      </c>
+      <c r="D11" s="33">
+        <v>6.8468238631389529</v>
+      </c>
+      <c r="E11" s="34">
+        <v>8.4064333676840963</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="8">
+        <v>43077</v>
+      </c>
+      <c r="D12" s="24">
+        <v>-2.0548719693690178</v>
+      </c>
+      <c r="E12" s="25">
+        <v>-9.5228451661322939</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="19">
+        <v>43077</v>
+      </c>
+      <c r="D13" s="20">
+        <v>-13.667537968539802</v>
+      </c>
+      <c r="E13" s="20">
+        <v>-14.510145679461202</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D13">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -971,4 +1491,324 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="19">
+        <v>43077</v>
+      </c>
+      <c r="C2">
+        <v>18.649979791668912</v>
+      </c>
+      <c r="D2">
+        <v>-3.9663832799179333</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="19">
+        <v>43077</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>16.684601942494112</v>
+      </c>
+      <c r="E3">
+        <v>5.5733560361472074</v>
+      </c>
+      <c r="F3">
+        <v>9.4708503763952407</v>
+      </c>
+      <c r="G3">
+        <v>13.169748687254344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="19">
+        <v>43077</v>
+      </c>
+      <c r="C4">
+        <v>14.117317103061398</v>
+      </c>
+      <c r="D4">
+        <v>6.1042047741794132</v>
+      </c>
+      <c r="E4">
+        <v>6.6760150432087526</v>
+      </c>
+      <c r="F4">
+        <v>12.939308190275911</v>
+      </c>
+      <c r="G4">
+        <v>15.960748162828573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="19">
+        <v>43077</v>
+      </c>
+      <c r="C5">
+        <v>17.091866230778372</v>
+      </c>
+      <c r="D5">
+        <v>13.712218946388495</v>
+      </c>
+      <c r="E5">
+        <v>2.6779809153096328</v>
+      </c>
+      <c r="F5">
+        <v>12.547723341745744</v>
+      </c>
+      <c r="G5">
+        <v>17.252387856012099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="19">
+        <v>43077</v>
+      </c>
+      <c r="C6">
+        <v>10.880619988235393</v>
+      </c>
+      <c r="D6">
+        <v>-2.4731373805448338</v>
+      </c>
+      <c r="E6">
+        <v>7.8701676278994714</v>
+      </c>
+      <c r="F6">
+        <v>15.348880010914966</v>
+      </c>
+      <c r="G6">
+        <v>18.758352756514391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="19">
+        <v>43077</v>
+      </c>
+      <c r="C7">
+        <v>-0.13176184313442998</v>
+      </c>
+      <c r="D7">
+        <v>5.1543657242780014</v>
+      </c>
+      <c r="E7">
+        <v>-7.8324374906191387</v>
+      </c>
+      <c r="F7">
+        <v>-8.5947039734356263</v>
+      </c>
+      <c r="G7">
+        <v>-8.4728924935434016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="19">
+        <v>43077</v>
+      </c>
+      <c r="C8">
+        <v>5.1251173626475781</v>
+      </c>
+      <c r="D8">
+        <v>8.7804227669493464</v>
+      </c>
+      <c r="E8">
+        <v>0.87207028637587858</v>
+      </c>
+      <c r="F8">
+        <v>-5.0987887349677736</v>
+      </c>
+      <c r="G8">
+        <v>-4.0304817883549955</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="19">
+        <v>43077</v>
+      </c>
+      <c r="C9">
+        <v>4.5390661723477042</v>
+      </c>
+      <c r="D9">
+        <v>2.6127257046025205</v>
+      </c>
+      <c r="E9">
+        <v>4.8694807174907329</v>
+      </c>
+      <c r="F9">
+        <v>4.4203207053859659</v>
+      </c>
+      <c r="G9">
+        <v>1.9812018537549818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="19">
+        <v>43077</v>
+      </c>
+      <c r="C10">
+        <v>16.466138844921783</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>6.5112978406758648</v>
+      </c>
+      <c r="F10">
+        <v>1.9483452552699327</v>
+      </c>
+      <c r="G10">
+        <v>0.4445316178186407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="19">
+        <v>43077</v>
+      </c>
+      <c r="C11">
+        <v>6.8468238631389529</v>
+      </c>
+      <c r="D11">
+        <v>-1.1975654982263575</v>
+      </c>
+      <c r="E11">
+        <v>8.4064333676840963</v>
+      </c>
+      <c r="F11">
+        <v>17.299827711252725</v>
+      </c>
+      <c r="G11">
+        <v>14.910973219370199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="19">
+        <v>43077</v>
+      </c>
+      <c r="C12">
+        <v>-2.0548719693690178</v>
+      </c>
+      <c r="D12">
+        <v>-5.5443761439808892</v>
+      </c>
+      <c r="E12">
+        <v>-9.5228451661322939</v>
+      </c>
+      <c r="F12">
+        <v>-1.6439366871901808</v>
+      </c>
+      <c r="G12">
+        <v>3.9100686777555222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="19">
+        <v>43077</v>
+      </c>
+      <c r="C13">
+        <v>-13.667537968539802</v>
+      </c>
+      <c r="D13">
+        <v>-7.6659973982736611</v>
+      </c>
+      <c r="E13">
+        <v>-14.510145679461202</v>
+      </c>
+      <c r="F13">
+        <v>-7.9060284338763722</v>
+      </c>
+      <c r="G13">
+        <v>-7.3680539041034327</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Sigmaa005/Sigmaa005ScoreBoard.xlsx
+++ b/Sigmaa005/Sigmaa005ScoreBoard.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>timestamp</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>T-model signal (combined)</t>
+  </si>
+  <si>
+    <t>DAX</t>
   </si>
 </sst>
 </file>
@@ -154,7 +157,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -498,20 +501,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -523,17 +526,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1495,7 +1498,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
@@ -1503,9 +1506,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1537,22 +1540,22 @@
         <v>14</v>
       </c>
       <c r="B2" s="19">
-        <v>43077</v>
+        <v>43202</v>
       </c>
       <c r="C2">
-        <v>18.649979791668912</v>
+        <v>5.7402213506523632</v>
       </c>
       <c r="D2">
-        <v>-3.9663832799179333</v>
+        <v>-0.97341583846487134</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>1.9044519681442327</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>5.8118930175807035</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>7.5034108265953714</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1560,22 +1563,22 @@
         <v>15</v>
       </c>
       <c r="B3" s="19">
-        <v>43077</v>
+        <v>43202</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>9.1926037297326726</v>
       </c>
       <c r="D3">
-        <v>16.684601942494112</v>
+        <v>11.071906557705075</v>
       </c>
       <c r="E3">
-        <v>5.5733560361472074</v>
+        <v>-3.1249848846569099</v>
       </c>
       <c r="F3">
-        <v>9.4708503763952407</v>
+        <v>1.5561839012784087</v>
       </c>
       <c r="G3">
-        <v>13.169748687254344</v>
+        <v>7.1870144627716224</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1583,22 +1586,22 @@
         <v>16</v>
       </c>
       <c r="B4" s="19">
-        <v>43077</v>
+        <v>43202</v>
       </c>
       <c r="C4">
-        <v>14.117317103061398</v>
+        <v>11.893659167996583</v>
       </c>
       <c r="D4">
-        <v>6.1042047741794132</v>
+        <v>14.962751586945219</v>
       </c>
       <c r="E4">
-        <v>6.6760150432087526</v>
+        <v>-3.9864128256911044</v>
       </c>
       <c r="F4">
-        <v>12.939308190275911</v>
+        <v>0.71743931090858926</v>
       </c>
       <c r="G4">
-        <v>15.960748162828573</v>
+        <v>6.0273566265938756</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1606,22 +1609,22 @@
         <v>17</v>
       </c>
       <c r="B5" s="19">
-        <v>43077</v>
+        <v>43202</v>
       </c>
       <c r="C5">
-        <v>17.091866230778372</v>
+        <v>7.8894100441314787</v>
       </c>
       <c r="D5">
-        <v>13.712218946388495</v>
+        <v>9.0601177926637089</v>
       </c>
       <c r="E5">
-        <v>2.6779809153096328</v>
+        <v>6.5107556788116838</v>
       </c>
       <c r="F5">
-        <v>12.547723341745744</v>
+        <v>-1.648741041082459</v>
       </c>
       <c r="G5">
-        <v>17.252387856012099</v>
+        <v>-1.9900944311644155</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1629,22 +1632,22 @@
         <v>18</v>
       </c>
       <c r="B6" s="19">
-        <v>43077</v>
+        <v>43202</v>
       </c>
       <c r="C6">
-        <v>10.880619988235393</v>
+        <v>9.4318026430809532</v>
       </c>
       <c r="D6">
-        <v>-2.4731373805448338</v>
+        <v>8.6643598196580474</v>
       </c>
       <c r="E6">
-        <v>7.8701676278994714</v>
+        <v>-2.0895562836341606</v>
       </c>
       <c r="F6">
-        <v>15.348880010914966</v>
+        <v>4.7499633479461512</v>
       </c>
       <c r="G6">
-        <v>18.758352756514391</v>
+        <v>11.477478137787582</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1652,22 +1655,22 @@
         <v>19</v>
       </c>
       <c r="B7" s="19">
-        <v>43077</v>
+        <v>43203</v>
       </c>
       <c r="C7">
-        <v>-0.13176184313442998</v>
+        <v>0.44848005394504492</v>
       </c>
       <c r="D7">
-        <v>5.1543657242780014</v>
+        <v>7.9361794159837489</v>
       </c>
       <c r="E7">
-        <v>-7.8324374906191387</v>
+        <v>3.4445833664773353</v>
       </c>
       <c r="F7">
-        <v>-8.5947039734356263</v>
+        <v>-12.449710886312944</v>
       </c>
       <c r="G7">
-        <v>-8.4728924935434016</v>
+        <v>-15.318537170169225</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1675,22 +1678,22 @@
         <v>20</v>
       </c>
       <c r="B8" s="19">
-        <v>43077</v>
+        <v>43203</v>
       </c>
       <c r="C8">
-        <v>5.1251173626475781</v>
+        <v>6.2471313095442653</v>
       </c>
       <c r="D8">
-        <v>8.7804227669493464</v>
+        <v>10.761804814096337</v>
       </c>
       <c r="E8">
-        <v>0.87207028637587858</v>
+        <v>5.5490149701918474</v>
       </c>
       <c r="F8">
-        <v>-5.0987887349677736</v>
+        <v>-7.0063056639735963</v>
       </c>
       <c r="G8">
-        <v>-4.0304817883549955</v>
+        <v>-12.117767770460732</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1698,22 +1701,22 @@
         <v>21</v>
       </c>
       <c r="B9" s="19">
-        <v>43077</v>
+        <v>43203</v>
       </c>
       <c r="C9">
-        <v>4.5390661723477042</v>
+        <v>4.7637205081046554</v>
       </c>
       <c r="D9">
-        <v>2.6127257046025205</v>
+        <v>9.5274410162093108</v>
       </c>
       <c r="E9">
-        <v>4.8694807174907329</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>4.4203207053859659</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1.9812018537549818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1721,22 +1724,22 @@
         <v>22</v>
       </c>
       <c r="B10" s="19">
-        <v>43077</v>
+        <v>43203</v>
       </c>
       <c r="C10">
-        <v>16.466138844921783</v>
+        <v>15.690889177423504</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>6.5112978406758648</v>
+        <v>10.617588522339645</v>
       </c>
       <c r="F10">
-        <v>1.9483452552699327</v>
+        <v>-4.5368558884230303</v>
       </c>
       <c r="G10">
-        <v>0.4445316178186407</v>
+        <v>-8.4037961491734166</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1744,22 +1747,22 @@
         <v>23</v>
       </c>
       <c r="B11" s="19">
-        <v>43077</v>
+        <v>43202</v>
       </c>
       <c r="C11">
-        <v>6.8468238631389529</v>
+        <v>8.6685046173644515</v>
       </c>
       <c r="D11">
-        <v>-1.1975654982263575</v>
+        <v>3.2817711759426516</v>
       </c>
       <c r="E11">
-        <v>8.4064333676840963</v>
+        <v>8.2752801270979859</v>
       </c>
       <c r="F11">
-        <v>17.299827711252725</v>
+        <v>9.4882856806693336</v>
       </c>
       <c r="G11">
-        <v>14.910973219370199</v>
+        <v>12.266451755101885</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1767,22 +1770,22 @@
         <v>24</v>
       </c>
       <c r="B12" s="19">
-        <v>43077</v>
+        <v>43203</v>
       </c>
       <c r="C12">
-        <v>-2.0548719693690178</v>
+        <v>-1.5573721835490968</v>
       </c>
       <c r="D12">
-        <v>-5.5443761439808892</v>
+        <v>-3.1147443670981936</v>
       </c>
       <c r="E12">
-        <v>-9.5228451661322939</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>-1.6439366871901808</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>3.9100686777555222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1790,22 +1793,45 @@
         <v>25</v>
       </c>
       <c r="B13" s="19">
-        <v>43077</v>
+        <v>43203</v>
       </c>
       <c r="C13">
-        <v>-13.667537968539802</v>
+        <v>-16.559879116594324</v>
       </c>
       <c r="D13">
-        <v>-7.6659973982736611</v>
+        <v>-15.532888311392476</v>
       </c>
       <c r="E13">
-        <v>-14.510145679461202</v>
+        <v>4.5942347219017865</v>
       </c>
       <c r="F13">
-        <v>-7.9060284338763722</v>
+        <v>-15.811544175405892</v>
       </c>
       <c r="G13">
-        <v>-7.3680539041034327</v>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="19">
+        <v>43202</v>
+      </c>
+      <c r="C14">
+        <v>-3.0558073289275525</v>
+      </c>
+      <c r="D14">
+        <v>0.14393696283560189</v>
+      </c>
+      <c r="E14">
+        <v>-4.5883094093854924</v>
+      </c>
+      <c r="F14">
+        <v>-6.6442603023127358</v>
+      </c>
+      <c r="G14">
+        <v>-0.80845670779221257</v>
       </c>
     </row>
   </sheetData>

--- a/Sigmaa005/Sigmaa005ScoreBoard.xlsx
+++ b/Sigmaa005/Sigmaa005ScoreBoard.xlsx
@@ -1540,22 +1540,22 @@
         <v>14</v>
       </c>
       <c r="B2" s="19">
-        <v>43202</v>
+        <v>43350</v>
       </c>
       <c r="C2">
-        <v>5.7402213506523632</v>
+        <v>17.367844387089942</v>
       </c>
       <c r="D2">
-        <v>-0.97341583846487134</v>
+        <v>-4.0702376643920379</v>
       </c>
       <c r="E2">
-        <v>1.9044519681442327</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>5.8118930175807035</v>
+        <v>19.973134582333241</v>
       </c>
       <c r="G2">
-        <v>7.5034108265953714</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1563,22 +1563,22 @@
         <v>15</v>
       </c>
       <c r="B3" s="19">
-        <v>43202</v>
+        <v>43350</v>
       </c>
       <c r="C3">
-        <v>9.1926037297326726</v>
+        <v>10.665651455543772</v>
       </c>
       <c r="D3">
-        <v>11.071906557705075</v>
+        <v>6.1249355961562078</v>
       </c>
       <c r="E3">
-        <v>-3.1249848846569099</v>
+        <v>8.0718725905510311</v>
       </c>
       <c r="F3">
-        <v>1.5561839012784087</v>
+        <v>9.9359943811423648</v>
       </c>
       <c r="G3">
-        <v>7.1870144627716224</v>
+        <v>12.288393457709571</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1586,22 +1586,22 @@
         <v>16</v>
       </c>
       <c r="B4" s="19">
-        <v>43202</v>
+        <v>43350</v>
       </c>
       <c r="C4">
-        <v>11.893659167996583</v>
+        <v>14.95860352630975</v>
       </c>
       <c r="D4">
-        <v>14.962751586945219</v>
+        <v>18.549182124655339</v>
       </c>
       <c r="E4">
-        <v>-3.9864128256911044</v>
+        <v>-0.17658835303552817</v>
       </c>
       <c r="F4">
-        <v>0.71743931090858926</v>
+        <v>5.399188588103863</v>
       </c>
       <c r="G4">
-        <v>6.0273566265938756</v>
+        <v>8.5623362178213132</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1609,22 +1609,22 @@
         <v>17</v>
       </c>
       <c r="B5" s="19">
-        <v>43202</v>
+        <v>43350</v>
       </c>
       <c r="C5">
-        <v>7.8894100441314787</v>
+        <v>3.5515012656374396</v>
       </c>
       <c r="D5">
-        <v>9.0601177926637089</v>
+        <v>3.3143409722901471</v>
       </c>
       <c r="E5">
-        <v>6.5107556788116838</v>
+        <v>0.4454668647395626</v>
       </c>
       <c r="F5">
-        <v>-1.648741041082459</v>
+        <v>4.0505570838979841</v>
       </c>
       <c r="G5">
-        <v>-1.9900944311644155</v>
+        <v>4.371120044789393</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1632,22 +1632,22 @@
         <v>18</v>
       </c>
       <c r="B6" s="19">
-        <v>43202</v>
+        <v>43350</v>
       </c>
       <c r="C6">
-        <v>9.4318026430809532</v>
+        <v>1.2111632702946744</v>
       </c>
       <c r="D6">
-        <v>8.6643598196580474</v>
+        <v>1.8537848026599391</v>
       </c>
       <c r="E6">
-        <v>-2.0895562836341606</v>
+        <v>-4.2920144945156053</v>
       </c>
       <c r="F6">
-        <v>4.7499633479461512</v>
+        <v>-1.9079520280233015</v>
       </c>
       <c r="G6">
-        <v>11.477478137787582</v>
+        <v>0.19796103226916392</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1655,22 +1655,22 @@
         <v>19</v>
       </c>
       <c r="B7" s="19">
-        <v>43203</v>
+        <v>43350</v>
       </c>
       <c r="C7">
-        <v>0.44848005394504492</v>
+        <v>0.47144998407183369</v>
       </c>
       <c r="D7">
-        <v>7.9361794159837489</v>
+        <v>0.83652996951865666</v>
       </c>
       <c r="E7">
-        <v>3.4445833664773353</v>
+        <v>3.9159553299859224</v>
       </c>
       <c r="F7">
-        <v>-12.449710886312944</v>
+        <v>0.25575809741634875</v>
       </c>
       <c r="G7">
-        <v>-15.318537170169225</v>
+        <v>-3.2157872801562624</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1678,22 +1678,22 @@
         <v>20</v>
       </c>
       <c r="B8" s="19">
-        <v>43203</v>
+        <v>43350</v>
       </c>
       <c r="C8">
-        <v>6.2471313095442653</v>
+        <v>0.36895115586657967</v>
       </c>
       <c r="D8">
-        <v>10.761804814096337</v>
+        <v>0.41721055176710059</v>
       </c>
       <c r="E8">
-        <v>5.5490149701918474</v>
+        <v>0.36562721843696705</v>
       </c>
       <c r="F8">
-        <v>-7.0063056639735963</v>
+        <v>0.26645091268953491</v>
       </c>
       <c r="G8">
-        <v>-12.117767770460732</v>
+        <v>1.6342042845379897E-3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1701,22 +1701,22 @@
         <v>21</v>
       </c>
       <c r="B9" s="19">
-        <v>43203</v>
+        <v>43350</v>
       </c>
       <c r="C9">
-        <v>4.7637205081046554</v>
+        <v>-6.734258621138606</v>
       </c>
       <c r="D9">
-        <v>9.5274410162093108</v>
+        <v>-4.1925816046159463</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>-5.6103291547708327</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>-6.6559486406553798</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>-6.4954226969637201</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1724,22 +1724,22 @@
         <v>22</v>
       </c>
       <c r="B10" s="19">
-        <v>43203</v>
+        <v>43350</v>
       </c>
       <c r="C10">
-        <v>15.690889177423504</v>
+        <v>0.36082517941544545</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>-1.3010977828823596</v>
       </c>
       <c r="E10">
-        <v>10.617588522339645</v>
+        <v>2.9146778550139789</v>
       </c>
       <c r="F10">
-        <v>-4.5368558884230303</v>
+        <v>4.62910657576509</v>
       </c>
       <c r="G10">
-        <v>-8.4037961491734166</v>
+        <v>2.9503977618144983</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1750,7 +1750,7 @@
         <v>43202</v>
       </c>
       <c r="C11">
-        <v>8.6685046173644515</v>
+        <v>8.8736175864724505</v>
       </c>
       <c r="D11">
         <v>3.2817711759426516</v>
@@ -1796,7 +1796,7 @@
         <v>43203</v>
       </c>
       <c r="C13">
-        <v>-16.559879116594324</v>
+        <v>-16.576170961197288</v>
       </c>
       <c r="D13">
         <v>-15.532888311392476</v>
@@ -1816,22 +1816,22 @@
         <v>40</v>
       </c>
       <c r="B14" s="19">
-        <v>43202</v>
+        <v>43350</v>
       </c>
       <c r="C14">
-        <v>-3.0558073289275525</v>
+        <v>-3.550676798817892</v>
       </c>
       <c r="D14">
-        <v>0.14393696283560189</v>
+        <v>0.83235880820814145</v>
       </c>
       <c r="E14">
-        <v>-4.5883094093854924</v>
+        <v>-9.1804265490545269</v>
       </c>
       <c r="F14">
-        <v>-6.6442603023127358</v>
+        <v>-4.8244581472772614</v>
       </c>
       <c r="G14">
-        <v>-0.80845670779221257</v>
+        <v>-0.78634742370886979</v>
       </c>
     </row>
   </sheetData>
